--- a/report/reliability/comb/Centro de Educação - CEDU-Doutorado.xlsx
+++ b/report/reliability/comb/Centro de Educação - CEDU-Doutorado.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1011,6 +1011,16 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1837,11 +1847,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2222,11 +2227,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3394,9 +3394,7 @@
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3420,16 @@
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3437,9 +3437,7 @@
     <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,23 +3451,23 @@
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,22 +3481,22 @@
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,22 +3510,22 @@
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3551,16 @@
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3568,9 +3568,7 @@
     <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,23 +3582,23 @@
     <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,22 +3612,22 @@
     <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,19 +3641,20 @@
     <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3683,13 +3682,14 @@
     <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3698,7 +3698,6 @@
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3714,13 +3713,14 @@
     <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3728,7 +3728,6 @@
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3744,20 +3743,20 @@
     <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3773,13 +3772,14 @@
     <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4122,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8461877141599189</v>
+        <v>0.8147842571949032</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8656290469351995</v>
+        <v>0.8266010827701217</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9262366766255027</v>
+        <v>0.910443887661472</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3493143393140579</v>
+        <v>0.2843105417358052</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>6.442084596346872</v>
+        <v>4.7670486988928555</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03260736375498469</v>
+        <v>0.03664290434744709</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>3.2235772357723578</v>
+        <v>2.7113821138211383</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7767093658662745</v>
+        <v>0.7059020925224987</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3195996871141751</v>
+        <v>0.25312760772002874</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8401358703820604</v>
+        <v>0.8063763409472379</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8535621388443828</v>
+        <v>0.8090407432637693</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9138310611780013</v>
+        <v>0.8964539684389005</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3463599849640744</v>
+        <v>0.27805980546520487</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>5.828835057467241</v>
+        <v>4.236719167698088</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.034409770867306635</v>
+        <v>0.03865985017721581</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.031991479479401834</v>
+        <v>0.05600450563705764</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3334449452835394</v>
+        <v>0.24126223847150893</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8459171704412164</v>
+        <v>0.8156051878419014</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.865556770934999</v>
+        <v>0.8279068545694283</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9214514380807568</v>
+        <v>0.9087663682452176</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3691967451510477</v>
+        <v>0.3042733227473675</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>6.438083769295044</v>
+        <v>4.8108066855192275</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.032976983553425904</v>
+        <v>0.03668308692166151</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.026751236512380254</v>
+        <v>0.0517738868429659</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3435394817092328</v>
+        <v>0.2721492402217813</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8348044950738918</v>
+        <v>0.8066202531645571</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8457232446202558</v>
+        <v>0.8096472257595773</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.90981047295603</v>
+        <v>0.8906246697919422</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.3325995108586423</v>
+        <v>0.2788494884809192</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>5.481857863412747</v>
+        <v>4.2534038654827375</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.035194358820111744</v>
+        <v>0.03924915008928559</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0335218508219464</v>
+        <v>0.04345228519796323</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2870930951729434</v>
+        <v>0.25534988220276683</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8257117732943988</v>
+        <v>0.77523784544219</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8453085515940452</v>
+        <v>0.7959270414440018</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9115060248105681</v>
+        <v>0.8897179524280059</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.33189514484471444</v>
+        <v>0.26175528571292656</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>5.464481458443082</v>
+        <v>3.9002082739227664</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03670176644331258</v>
+        <v>0.04557377852209276</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03275536518600414</v>
+        <v>0.04313908104507696</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.29299799508055563</v>
+        <v>0.24126223847150893</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8197620533772154</v>
+        <v>0.7724153330852253</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8477288373117519</v>
+        <v>0.7921592151260296</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9057732826690599</v>
+        <v>0.8824185090420591</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.33603874032933306</v>
+        <v>0.25732757128017913</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>5.567231656642342</v>
+        <v>3.811375210146435</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.039188978355370566</v>
+        <v>0.04654115410218202</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.030258576454511705</v>
+        <v>0.04071961710749627</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.29103165521086705</v>
+        <v>0.24126223847150893</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8170619559450591</v>
+        <v>0.8193459179992787</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8436877600766298</v>
+        <v>0.838593253551579</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9026557907244903</v>
+        <v>0.9120699198407538</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.32916405409623345</v>
+        <v>0.32080015720521743</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>5.397451667829952</v>
+        <v>5.195527894613493</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.04013631607589158</v>
+        <v>0.03704891437381524</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.02873709788457729</v>
+        <v>0.042399622471520806</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.28923355321114436</v>
+        <v>0.2721492402217813</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8380370103969137</v>
+        <v>0.8014715947980835</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8629524880996233</v>
+        <v>0.8168114944143844</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9113815328614346</v>
+        <v>0.8978063310984937</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3640419935992805</v>
+        <v>0.2884338447018783</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>6.296739547719224</v>
+        <v>4.458857785881312</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.03388575627669324</v>
+        <v>0.038299809981902216</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.030213951591467465</v>
+        <v>0.05317011532923373</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.34712206845362553</v>
+        <v>0.25534988220276683</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8383716839068328</v>
+        <v>0.7981548919640691</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8593588560534805</v>
+        <v>0.8093370611256736</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9133840850827347</v>
+        <v>0.893893619874215</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3571121886972351</v>
+        <v>0.2784452205224573</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>6.110294839327111</v>
+        <v>4.244857788849776</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03388698978762045</v>
+        <v>0.039042946572981074</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.033228571296092316</v>
+        <v>0.05583070753383027</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3435394817092328</v>
+        <v>0.2503462183362436</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8364548830673493</v>
+        <v>0.7984569179784591</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.860123749557398</v>
+        <v>0.8138801221956714</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9184645081092655</v>
+        <v>0.8985025975083772</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3585697825317683</v>
+        <v>0.2844542394052979</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>6.149176481609708</v>
+        <v>4.372881240827582</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03428685117151775</v>
+        <v>0.03891433641710243</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.032740374417325226</v>
+        <v>0.055572721045789704</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.36008271302406947</v>
+        <v>0.25090533323729064</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8387708925150295</v>
+        <v>0.8047415185783523</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8606433991174373</v>
+        <v>0.816706194248118</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9148147006697229</v>
+        <v>0.8975742234695129</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.35956534975181287</v>
+        <v>0.2882894640355869</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>6.175835185896295</v>
+        <v>4.455721735374199</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03325008530187166</v>
+        <v>0.03698287624241402</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.031465119977602415</v>
+        <v>0.05439990145690116</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.3435394817092328</v>
+        <v>0.26341528496401595</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8411072029362289</v>
+        <v>0.8064189882629548</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.862934619426271</v>
+        <v>0.8217556190094958</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9240604111449252</v>
+        <v>0.9069333387538456</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.36400701668790986</v>
+        <v>0.2953359259526395</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>6.295788300548208</v>
+        <v>4.610275030511475</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03407699852475488</v>
+        <v>0.03843687992563206</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.033492236479133485</v>
+        <v>0.05384770476316057</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.34712206845362553</v>
+        <v>0.26341528496401595</v>
       </c>
     </row>
     <row r="22">
@@ -4515,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8314955093169688</v>
+        <v>0.7947719449225473</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8518171274513234</v>
+        <v>0.8072148972618745</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9145060460986144</v>
+        <v>0.8959506107478797</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.34322156025664285</v>
+        <v>0.2757021753199882</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>5.74841824024912</v>
+        <v>4.187122790075616</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.035829527704752395</v>
+        <v>0.04050444704691094</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03319933383954504</v>
+        <v>0.05286096267270642</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3334449452835394</v>
+        <v>0.2503462183362436</v>
       </c>
     </row>
     <row r="23">
@@ -4586,16 +4586,16 @@
         <v>41.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5744032910740937</v>
+        <v>0.5461887660673423</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.6565623271556835</v>
+        <v>0.6353235894745575</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.6335017414677033</v>
+        <v>0.5987719446014405</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.5315972024336297</v>
+        <v>0.49675988135522675</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.926829268292683</v>
@@ -4612,16 +4612,16 @@
         <v>41.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.40304087373266906</v>
+        <v>0.35207638855391216</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.4917940356656225</v>
+        <v>0.4304630817987321</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.4507404308942257</v>
+        <v>0.3645362453153414</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.32059056343664893</v>
+        <v>0.2575017297424705</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.512195121951219</v>
@@ -4638,22 +4638,22 @@
         <v>41.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6916348865854949</v>
+        <v>0.6326417305461903</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7558447905998015</v>
+        <v>0.629152160369456</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.7443832329444812</v>
+        <v>0.6390793604718767</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6541936793539865</v>
+        <v>0.6015420219312078</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.7560975609756095</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.6237181977815802</v>
+        <v>0.4190581774617469</v>
       </c>
     </row>
     <row r="30">
@@ -4664,22 +4664,22 @@
         <v>41.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.7237534172843483</v>
+        <v>0.7984760902293752</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.7609268242923375</v>
+        <v>0.7627445745300467</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.744855859076407</v>
+        <v>0.7747413971523514</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.6612151342400793</v>
+        <v>0.7010810446864347</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.121951219512195</v>
+        <v>2.707317073170732</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.076919726609637</v>
+        <v>1.74991288981801</v>
       </c>
     </row>
     <row r="31">
@@ -4690,22 +4690,22 @@
         <v>41.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7804912253367728</v>
+        <v>0.8214648805230687</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.7310305893169406</v>
+        <v>0.7973474787024466</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.7354683618067049</v>
+        <v>0.8201227995354526</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.688037875797721</v>
+        <v>0.7247520083457246</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.707317073170732</v>
+        <v>2.975609756097561</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.74991288981801</v>
+        <v>1.8773359432723913</v>
       </c>
     </row>
     <row r="32">
@@ -4716,22 +4716,22 @@
         <v>41.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.8096519266431873</v>
+        <v>0.21751563221416031</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.7806317716161796</v>
+        <v>0.3013046914589014</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7903381347509875</v>
+        <v>0.23784838652657572</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.7196073030472884</v>
+        <v>0.1927886501153464</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.975609756097561</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8773359432723913</v>
+        <v>0.21808478995509087</v>
       </c>
     </row>
     <row r="33">
@@ -4742,16 +4742,16 @@
         <v>41.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.5720824643878121</v>
+        <v>0.5802064050787197</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.5289858088981894</v>
+        <v>0.5542497327388191</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.504901739779563</v>
+        <v>0.5248885784700079</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.4654174132545507</v>
+        <v>0.4628687633556141</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.682926829268293</v>
@@ -4768,16 +4768,16 @@
         <v>41.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6364750957293465</v>
+        <v>0.6645356327536595</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5789846749685525</v>
+        <v>0.6323115433059812</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5504634820567927</v>
+        <v>0.6091079131227473</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.504471900982749</v>
+        <v>0.5242734115683038</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.0</v>
@@ -4794,16 +4794,16 @@
         <v>41.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6033916860047341</v>
+        <v>0.6184572337382782</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5684680673658905</v>
+        <v>0.5853506320432258</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5298794530632949</v>
+        <v>0.5464310061678671</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.4921401627574083</v>
+        <v>0.49743107382637</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>2.682926829268293</v>
@@ -4820,16 +4820,16 @@
         <v>41.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5753191455065663</v>
+        <v>0.5625541530636792</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5612850033687562</v>
+        <v>0.555378077946242</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5327404797849571</v>
+        <v>0.5190866022302604</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.46142080202455715</v>
+        <v>0.43339988785338757</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.4390243902439024</v>
@@ -4846,16 +4846,16 @@
         <v>41.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.4963017830023815</v>
+        <v>0.49542218186627396</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5292381689475556</v>
+        <v>0.5003094753582162</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.46868358242152425</v>
+        <v>0.4465392431485599</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4230201454145338</v>
+        <v>0.41418803815907745</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>3.073170731707317</v>
@@ -4872,16 +4872,16 @@
         <v>41.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6604218899898073</v>
+        <v>0.6529686632466085</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6792062080205649</v>
+        <v>0.653748637256664</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6504692994176121</v>
+        <v>0.6340060583334342</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5984265851762874</v>
+        <v>0.582970248188524</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.8048780487804876</v>
@@ -4986,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.34146341463414637</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5609756097560976</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.0975609756097561</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5012,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.04878048780487805</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.36585365853658536</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5853658536585366</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,19 +5041,19 @@
         <v>0.21951219512195122</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.07317073170731707</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.024390243902439025</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
         <v>0.2682926829268293</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.2926829268292683</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.12195121951219512</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5064,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.21951219512195122</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.04878048780487805</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.2682926829268293</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.1951219512195122</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.2682926829268293</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5317,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8088710168768658</v>
+        <v>0.8262454434993924</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8390012377878217</v>
+        <v>0.9450768855915536</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8129725786244653</v>
+        <v>0.9210407590520859</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5657473625174699</v>
+        <v>0.8515385835018016</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.211227876908219</v>
+        <v>17.20727048658063</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.04442203088786723</v>
+        <v>0.016079023942591104</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>4.079268292682927</v>
+        <v>2.154471544715447</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.6457530110030554</v>
+        <v>1.293353867911747</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5795786249068613</v>
+        <v>0.8510247232511964</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7634450506625099</v>
+        <v>0.9309184481393509</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.784037898704051</v>
+        <v>0.9321467378526755</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7150999594332903</v>
+        <v>0.8729165053803746</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5475414810957728</v>
+        <v>0.8729165053803745</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.6304420729340188</v>
+        <v>13.73768494473821</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.05706402599970731</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.005161114492536103</v>
-      </c>
+        <v>0.021356585984886576</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5723646142570376</v>
+        <v>0.8729165053803745</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.754863813229572</v>
+        <v>0.5314617618586641</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8116626523655739</v>
+        <v>0.9195174030484374</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7503043133608698</v>
+        <v>0.8510247232511963</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5895820233748567</v>
+        <v>0.8510247232511965</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.309621339369499</v>
+        <v>11.425046381167826</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.05869950972677881</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.005726395429220401</v>
-      </c>
+        <v>0.03505691113710797</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6036789738637537</v>
+        <v>0.8510247232511964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7552816901408449</v>
+        <v>0.5467980295566501</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7895505153642746</v>
+        <v>0.9075065086103626</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.716893432630014</v>
+        <v>0.8306745218738338</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.555669708008239</v>
+        <v>0.8306745218738341</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.7517341357757967</v>
+        <v>9.81157154926078</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.058912461567214476</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0017669508714514357</v>
-      </c>
+        <v>0.038531573193719144</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5723646142570376</v>
+        <v>0.830674521873834</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7703523693803158</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.799193948122791</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7399281616786368</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5701962375910111</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.9799295920199196</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.06081233383941018</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.009291945778324859</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5867926355566849</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,253 +5478,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>41.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.8943995963271032</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9417165878636041</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.892202346264747</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.8692416349284656</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4190581774617469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>41.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7868046170591235</v>
+        <v>0.9630701142598801</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8377922404812909</v>
+        <v>0.9494041965342706</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7712722952244103</v>
+        <v>0.9124001300844977</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.677149109229051</v>
+        <v>0.8851027794143435</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.926829268292683</v>
+        <v>2.707317073170732</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.5652540978373808</v>
+        <v>1.74991288981801</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>41.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8163459270661816</v>
+        <v>0.9694414783651469</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7993950361836216</v>
+        <v>0.9565504573382234</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.699705846101793</v>
+        <v>0.9283323448676979</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6389303591871734</v>
+        <v>0.8925646382724932</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.512195121951219</v>
+        <v>2.975609756097561</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.8695387058524823</v>
+        <v>1.8773359432723913</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>41.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7940480604538087</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8303684259342778</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7624974716657154</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6726616564456014</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.7560975609756095</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.6237181977815802</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>41.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8665092492944487</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8171008015439201</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7281346619037629</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6692445778580662</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.121951219512195</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.076919726609637</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.024390243902439025</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.2682926829268293</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.2926829268292683</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="225">
+      <c r="E27" t="n" s="227">
+        <v>0.2682926829268293</v>
+      </c>
+      <c r="F27" t="n" s="228">
         <v>0.1951219512195122</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.6829268292682927</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.17073170731707318</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.7317073170731707</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.34146341463414637</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.5609756097560976</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.36585365853658536</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.5853658536585366</v>
-      </c>
-      <c r="F30" t="n" s="228">
+      <c r="G27" t="n" s="229">
+        <v>0.2682926829268293</v>
+      </c>
+      <c r="H27" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5784,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="230">
+      <c r="A1" t="s" s="232">
         <v>45</v>
       </c>
     </row>
@@ -5799,66 +5742,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="244">
+      <c r="A4" t="s" s="246">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="258">
+      <c r="A5" t="s" s="260">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="258">
+      <c r="B5" t="s" s="260">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="258">
+      <c r="C5" t="s" s="260">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="258">
+      <c r="D5" t="s" s="260">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="258">
+      <c r="E5" t="s" s="260">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="258">
+      <c r="F5" t="s" s="260">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="258">
+      <c r="G5" t="s" s="260">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="258">
+      <c r="H5" t="s" s="260">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="258">
+      <c r="I5" t="s" s="260">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="259">
-        <v>0.8078817733990149</v>
-      </c>
-      <c r="B6" t="n" s="260">
-        <v>0.8262645885989652</v>
-      </c>
-      <c r="C6" t="n" s="261">
-        <v>0.7039615407127324</v>
-      </c>
-      <c r="D6" t="n" s="262">
-        <v>0.7039615407127324</v>
-      </c>
-      <c r="E6" t="n" s="263">
-        <v>4.755878965236929</v>
-      </c>
-      <c r="F6" t="n" s="264">
-        <v>0.05579498883216576</v>
-      </c>
-      <c r="G6" t="n" s="265">
-        <v>2.841463414634146</v>
-      </c>
-      <c r="H6" t="n" s="266">
-        <v>1.4072980511881799</v>
-      </c>
-      <c r="I6" t="n" s="267">
-        <v>0.7039615407127323</v>
+      <c r="A6" t="n" s="261">
+        <v>0.6620482788173119</v>
+      </c>
+      <c r="B6" t="n" s="262">
+        <v>0.7670576070576258</v>
+      </c>
+      <c r="C6" t="n" s="263">
+        <v>0.7179080775485179</v>
+      </c>
+      <c r="D6" t="n" s="264">
+        <v>0.5232727799918196</v>
+      </c>
+      <c r="E6" t="n" s="265">
+        <v>3.292906874393541</v>
+      </c>
+      <c r="F6" t="n" s="266">
+        <v>0.04320875529802052</v>
+      </c>
+      <c r="G6" t="n" s="267">
+        <v>2.2113821138211383</v>
+      </c>
+      <c r="H6" t="n" s="268">
+        <v>0.9739840791562583</v>
+      </c>
+      <c r="I6" t="n" s="269">
+        <v>0.468751891596871</v>
       </c>
     </row>
     <row r="7">
@@ -5872,86 +5815,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="271">
+      <c r="A9" t="s" s="273">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="285">
+      <c r="B10" t="s" s="287">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="285">
+      <c r="C10" t="s" s="287">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="285">
+      <c r="D10" t="s" s="287">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="285">
+      <c r="E10" t="s" s="287">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="285">
+      <c r="F10" t="s" s="287">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="285">
+      <c r="G10" t="s" s="287">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="285">
+      <c r="H10" t="s" s="287">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="285">
+      <c r="I10" t="s" s="287">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="281">
+      <c r="A11" t="s" s="283">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="288">
+        <v>0.8078817733990149</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8262645885989652</v>
+      </c>
+      <c r="D11" t="n" s="290">
+        <v>0.7039615407127324</v>
+      </c>
+      <c r="E11" t="n" s="291">
+        <v>0.7039615407127324</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.755878965236929</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.05579498883216576</v>
+      </c>
+      <c r="H11" s="294"/>
+      <c r="I11" t="n" s="295">
+        <v>0.7039615407127323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="283">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="286">
-        <v>0.7039615407127324</v>
-      </c>
-      <c r="C11" t="n" s="287">
-        <v>0.7039615407127324</v>
-      </c>
-      <c r="D11" t="n" s="288">
-        <v>0.49556185080264414</v>
-      </c>
-      <c r="E11" t="n" s="289">
-        <v>0.7039615407127324</v>
-      </c>
-      <c r="F11" s="290"/>
-      <c r="G11" s="291"/>
-      <c r="H11" t="n" s="292">
-        <v>0.7039615407127324</v>
-      </c>
-      <c r="I11" t="n" s="293">
-        <v>0.7039615407127324</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="281">
+      <c r="B12" t="n" s="288">
+        <v>0.1792349726775957</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.5684682739097939</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.39710490766585527</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.3971049076658555</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.317326721398378</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.05860981845526253</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.39710490766585554</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="286">
-        <v>0.49556185080264414</v>
-      </c>
-      <c r="C12" t="n" s="287">
-        <v>0.7039615407127324</v>
-      </c>
-      <c r="D12" s="288"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="291"/>
-      <c r="H12" t="n" s="292">
-        <v>0.49556185080264414</v>
-      </c>
-      <c r="I12" t="n" s="293">
-        <v>0.7039615407127324</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.26331538001196875</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.638299626068539</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.46875189159687103</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.4687518915968709</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.764719287211715</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.06651276224727672</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.468751891596871</v>
       </c>
     </row>
     <row r="14">
@@ -5960,174 +5933,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="297">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="311">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="311">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="311">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="311">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="311">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="311">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="311">
+      <c r="H17" t="s" s="313">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="307">
+    <row r="18">
+      <c r="A18" t="s" s="309">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>41.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.5205429412878053</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.7530208016812039</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.5213345986471911</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.46291431333232436</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.9512195121951219</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.21808478995509087</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="312">
+      <c r="B19" t="n" s="314">
         <v>41.0</v>
       </c>
-      <c r="C17" t="n" s="313">
-        <v>0.8994287110758982</v>
-      </c>
-      <c r="D17" t="n" s="314">
-        <v>0.9230280441873725</v>
-      </c>
-      <c r="E17" t="n" s="315">
-        <v>0.7744428292376967</v>
-      </c>
-      <c r="F17" t="n" s="316">
-        <v>0.7039615407127324</v>
-      </c>
-      <c r="G17" t="n" s="317">
+      <c r="C19" t="n" s="315">
+        <v>0.9013686700988439</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8768617244730593</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.81486822551296</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7222891210088769</v>
+      </c>
+      <c r="G19" t="n" s="319">
         <v>2.682926829268293</v>
       </c>
-      <c r="H17" t="n" s="318">
+      <c r="H19" t="n" s="320">
         <v>1.3122313894706967</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="307">
+    <row r="20">
+      <c r="A20" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="312">
+      <c r="B20" t="n" s="314">
         <v>41.0</v>
       </c>
-      <c r="C18" t="n" s="313">
-        <v>0.9435852042962686</v>
-      </c>
-      <c r="D18" t="n" s="314">
-        <v>0.9230280441873725</v>
-      </c>
-      <c r="E18" t="n" s="315">
-        <v>0.7744428292376966</v>
-      </c>
-      <c r="F18" t="n" s="316">
-        <v>0.7039615407127322</v>
-      </c>
-      <c r="G18" t="n" s="317">
+      <c r="C20" t="n" s="315">
+        <v>0.9385553067857184</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.847946499414474</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7632482387965279</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7077764734754513</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.0</v>
       </c>
-      <c r="H18" t="n" s="318">
+      <c r="H20" t="n" s="320">
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="322">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="336">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="336">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="336">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="336">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="336">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="336">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="336">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="332">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.9512195121951219</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="337">
+      <c r="B26" t="n" s="339">
         <v>0.04878048780487805</v>
       </c>
-      <c r="C23" t="n" s="338">
+      <c r="C26" t="n" s="340">
         <v>0.21951219512195122</v>
       </c>
-      <c r="D23" t="n" s="339">
+      <c r="D26" t="n" s="341">
         <v>0.04878048780487805</v>
       </c>
-      <c r="E23" t="n" s="340">
+      <c r="E26" t="n" s="342">
         <v>0.4146341463414634</v>
       </c>
-      <c r="F23" t="n" s="341">
+      <c r="F26" t="n" s="343">
         <v>0.21951219512195122</v>
       </c>
-      <c r="G23" t="n" s="342">
+      <c r="G26" t="n" s="344">
         <v>0.04878048780487805</v>
       </c>
-      <c r="H23" t="n" s="343">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="332">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="337">
+      <c r="B27" t="n" s="339">
         <v>0.04878048780487805</v>
       </c>
-      <c r="C24" t="n" s="338">
+      <c r="C27" t="n" s="340">
         <v>0.21951219512195122</v>
       </c>
-      <c r="D24" t="n" s="339">
+      <c r="D27" t="n" s="341">
         <v>0.17073170731707318</v>
       </c>
-      <c r="E24" t="n" s="340">
+      <c r="E27" t="n" s="342">
         <v>0.14634146341463414</v>
       </c>
-      <c r="F24" t="n" s="341">
+      <c r="F27" t="n" s="343">
         <v>0.07317073170731707</v>
       </c>
-      <c r="G24" t="n" s="342">
+      <c r="G27" t="n" s="344">
         <v>0.34146341463414637</v>
       </c>
-      <c r="H24" t="n" s="343">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6157,7 +6187,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="345">
+      <c r="A1" t="s" s="347">
         <v>46</v>
       </c>
     </row>
@@ -6172,66 +6202,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="359">
+      <c r="A4" t="s" s="361">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="373">
+      <c r="A5" t="s" s="375">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="373">
+      <c r="B5" t="s" s="375">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="373">
+      <c r="C5" t="s" s="375">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="373">
+      <c r="D5" t="s" s="375">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="373">
+      <c r="E5" t="s" s="375">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="373">
+      <c r="F5" t="s" s="375">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="373">
+      <c r="G5" t="s" s="375">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="373">
+      <c r="H5" t="s" s="375">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="373">
+      <c r="I5" t="s" s="375">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="374">
-        <v>0.7405247813411078</v>
-      </c>
-      <c r="B6" t="n" s="375">
-        <v>0.7424012735506198</v>
-      </c>
-      <c r="C6" t="n" s="376">
-        <v>0.5903323993072618</v>
-      </c>
-      <c r="D6" t="n" s="377">
-        <v>0.590332399307262</v>
-      </c>
-      <c r="E6" t="n" s="378">
-        <v>2.8820067699228553</v>
-      </c>
-      <c r="F6" t="n" s="379">
-        <v>0.08054874064503866</v>
-      </c>
-      <c r="G6" t="n" s="380">
-        <v>2.9390243902439024</v>
-      </c>
-      <c r="H6" t="n" s="381">
-        <v>0.7921104874891153</v>
-      </c>
-      <c r="I6" t="n" s="382">
-        <v>0.5903323993072619</v>
+      <c r="A6" t="n" s="376">
+        <v>0.6981549815498154</v>
+      </c>
+      <c r="B6" t="n" s="377">
+        <v>0.7395958645230591</v>
+      </c>
+      <c r="C6" t="n" s="378">
+        <v>0.586792635556685</v>
+      </c>
+      <c r="D6" t="n" s="379">
+        <v>0.586792635556685</v>
+      </c>
+      <c r="E6" t="n" s="380">
+        <v>2.8401847888032163</v>
+      </c>
+      <c r="F6" t="n" s="381">
+        <v>0.08266304123600526</v>
+      </c>
+      <c r="G6" t="n" s="382">
+        <v>4.219512195121951</v>
+      </c>
+      <c r="H6" t="n" s="383">
+        <v>0.642736148117998</v>
+      </c>
+      <c r="I6" t="n" s="384">
+        <v>0.5867926355566849</v>
       </c>
     </row>
     <row r="7">
@@ -6245,81 +6275,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="386">
+      <c r="A9" t="s" s="388">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="400">
+      <c r="B10" t="s" s="402">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="400">
+      <c r="C10" t="s" s="402">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="400">
+      <c r="D10" t="s" s="402">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="400">
+      <c r="E10" t="s" s="402">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="400">
+      <c r="F10" t="s" s="402">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="400">
+      <c r="G10" t="s" s="402">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="400">
+      <c r="H10" t="s" s="402">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="400">
+      <c r="I10" t="s" s="402">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="396">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="401">
-        <v>0.5903323993072619</v>
-      </c>
-      <c r="C11" t="n" s="402">
-        <v>0.5903323993072619</v>
-      </c>
-      <c r="D11" t="n" s="403">
-        <v>0.3484923416718684</v>
-      </c>
-      <c r="E11" t="n" s="404">
-        <v>0.5903323993072619</v>
-      </c>
-      <c r="F11" s="405"/>
-      <c r="G11" s="406"/>
-      <c r="H11" t="n" s="407">
-        <v>0.5903323993072619</v>
-      </c>
-      <c r="I11" t="n" s="408">
-        <v>0.5903323993072619</v>
+      <c r="A11" t="s" s="398">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="403">
+        <v>0.5867926355566849</v>
+      </c>
+      <c r="C11" t="n" s="404">
+        <v>0.5867926355566849</v>
+      </c>
+      <c r="D11" t="n" s="405">
+        <v>0.3443255971435606</v>
+      </c>
+      <c r="E11" t="n" s="406">
+        <v>0.5867926355566849</v>
+      </c>
+      <c r="F11" s="407"/>
+      <c r="G11" s="408"/>
+      <c r="H11" t="n" s="409">
+        <v>0.5867926355566849</v>
+      </c>
+      <c r="I11" t="n" s="410">
+        <v>0.5867926355566849</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="396">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="401">
-        <v>0.3484923416718684</v>
-      </c>
-      <c r="C12" t="n" s="402">
-        <v>0.5903323993072619</v>
-      </c>
-      <c r="D12" s="403"/>
-      <c r="E12" s="404"/>
-      <c r="F12" s="405"/>
-      <c r="G12" s="406"/>
-      <c r="H12" t="n" s="407">
-        <v>0.3484923416718684</v>
-      </c>
-      <c r="I12" t="n" s="408">
-        <v>0.5903323993072619</v>
+      <c r="A12" t="s" s="398">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="403">
+        <v>0.3443255971435606</v>
+      </c>
+      <c r="C12" t="n" s="404">
+        <v>0.5867926355566849</v>
+      </c>
+      <c r="D12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="408"/>
+      <c r="H12" t="n" s="409">
+        <v>0.3443255971435606</v>
+      </c>
+      <c r="I12" t="n" s="410">
+        <v>0.5867926355566849</v>
       </c>
     </row>
     <row r="13">
@@ -6333,84 +6363,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="412">
+      <c r="A15" t="s" s="414">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="426">
+      <c r="B16" t="s" s="428">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="426">
+      <c r="C16" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="426">
+      <c r="D16" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="426">
+      <c r="E16" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="426">
+      <c r="F16" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="426">
+      <c r="G16" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="426">
+      <c r="H16" t="s" s="428">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="422">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="427">
+      <c r="A17" t="s" s="424">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="429">
         <v>41.0</v>
       </c>
-      <c r="C17" t="n" s="428">
-        <v>0.881191986137865</v>
-      </c>
-      <c r="D17" t="n" s="429">
-        <v>0.8917209202736196</v>
-      </c>
-      <c r="E17" t="n" s="430">
-        <v>0.685136753130034</v>
-      </c>
-      <c r="F17" t="n" s="431">
-        <v>0.5903323993072617</v>
-      </c>
-      <c r="G17" t="n" s="432">
-        <v>3.073170731707317</v>
-      </c>
-      <c r="H17" t="n" s="433">
-        <v>0.8482406469404489</v>
+      <c r="C17" t="n" s="430">
+        <v>0.8366520304733674</v>
+      </c>
+      <c r="D17" t="n" s="431">
+        <v>0.8907279706949494</v>
+      </c>
+      <c r="E17" t="n" s="432">
+        <v>0.6823189256866049</v>
+      </c>
+      <c r="F17" t="n" s="433">
+        <v>0.586792635556685</v>
+      </c>
+      <c r="G17" t="n" s="434">
+        <v>3.926829268292683</v>
+      </c>
+      <c r="H17" t="n" s="435">
+        <v>0.5652540978373808</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="422">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="427">
+      <c r="A18" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="429">
         <v>41.0</v>
       </c>
-      <c r="C18" t="n" s="428">
-        <v>0.9017881172154696</v>
-      </c>
-      <c r="D18" t="n" s="429">
-        <v>0.8917209202736196</v>
-      </c>
-      <c r="E18" t="n" s="430">
-        <v>0.685136753130034</v>
-      </c>
-      <c r="F18" t="n" s="431">
-        <v>0.5903323993072618</v>
-      </c>
-      <c r="G18" t="n" s="432">
-        <v>2.8048780487804876</v>
-      </c>
-      <c r="H18" t="n" s="433">
-        <v>0.9278877139805751</v>
+      <c r="C18" t="n" s="430">
+        <v>0.9344624938234889</v>
+      </c>
+      <c r="D18" t="n" s="431">
+        <v>0.8907279706949494</v>
+      </c>
+      <c r="E18" t="n" s="432">
+        <v>0.6823189256866049</v>
+      </c>
+      <c r="F18" t="n" s="433">
+        <v>0.5867926355566849</v>
+      </c>
+      <c r="G18" t="n" s="434">
+        <v>4.512195121951219</v>
+      </c>
+      <c r="H18" t="n" s="435">
+        <v>0.8695387058524823</v>
       </c>
     </row>
     <row r="19">
@@ -6424,74 +6454,65 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="437">
+      <c r="A21" t="s" s="439">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="451">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="451">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="451">
+      <c r="B22" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="451">
+      <c r="C22" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="451">
+      <c r="D22" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="451">
+      <c r="E22" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s" s="453">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="447">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="452">
+      <c r="A23" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n" s="455">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="D23" t="n" s="456">
+        <v>0.6829268292682927</v>
+      </c>
+      <c r="E23" t="n" s="457">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="F23" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="454">
         <v>0.024390243902439025</v>
       </c>
-      <c r="C23" t="n" s="453">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n" s="454">
+      <c r="C24" t="n" s="455">
         <v>0.17073170731707318</v>
       </c>
-      <c r="E23" t="n" s="455">
-        <v>0.4878048780487805</v>
-      </c>
-      <c r="F23" t="n" s="456">
-        <v>0.3170731707317073</v>
-      </c>
-      <c r="G23" t="n" s="457">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="447">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="452">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="C24" t="n" s="453">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="D24" t="n" s="454">
-        <v>0.3170731707317073</v>
-      </c>
-      <c r="E24" t="n" s="455">
-        <v>0.3902439024390244</v>
-      </c>
-      <c r="F24" t="n" s="456">
-        <v>0.24390243902439024</v>
-      </c>
-      <c r="G24" t="n" s="457">
+      <c r="D24" t="n" s="456">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="E24" t="n" s="457">
+        <v>0.7317073170731707</v>
+      </c>
+      <c r="F24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6521,7 +6542,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="459">
+      <c r="A1" t="s" s="460">
         <v>47</v>
       </c>
     </row>
@@ -6536,66 +6557,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="473">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="487">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="487">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="487">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="487">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="487">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="487">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="487">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="487">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="487">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="488">
-        <v>0.9309184481393509</v>
-      </c>
-      <c r="B6" t="n" s="489">
-        <v>0.9321467378526755</v>
-      </c>
-      <c r="C6" t="n" s="490">
-        <v>0.8729165053803746</v>
-      </c>
-      <c r="D6" t="n" s="491">
-        <v>0.8729165053803745</v>
-      </c>
-      <c r="E6" t="n" s="492">
-        <v>13.73768494473821</v>
-      </c>
-      <c r="F6" t="n" s="493">
-        <v>0.021356585984886576</v>
-      </c>
-      <c r="G6" t="n" s="494">
-        <v>2.841463414634146</v>
-      </c>
-      <c r="H6" t="n" s="495">
-        <v>1.755131848288911</v>
-      </c>
-      <c r="I6" t="n" s="496">
-        <v>0.8729165053803745</v>
+      <c r="A6" t="n" s="489">
+        <v>0.8153398764085786</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.8154137562610617</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.6883532208573955</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.6883532208573955</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>4.4175218030565055</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.057661368264005204</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>2.5609756097560976</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.2951598451118858</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.6883532208573956</v>
       </c>
     </row>
     <row r="7">
@@ -6609,81 +6630,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="500">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="514">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="514">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="514">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="514">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="514">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="514">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="514">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="514">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="510">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="515">
-        <v>0.8729165053803746</v>
-      </c>
-      <c r="C11" t="n" s="516">
-        <v>0.8729165053803746</v>
-      </c>
-      <c r="D11" t="n" s="517">
-        <v>0.7619832253654856</v>
-      </c>
-      <c r="E11" t="n" s="518">
-        <v>0.8729165053803746</v>
-      </c>
-      <c r="F11" s="519"/>
-      <c r="G11" s="520"/>
-      <c r="H11" t="n" s="521">
-        <v>0.8729165053803746</v>
-      </c>
-      <c r="I11" t="n" s="522">
-        <v>0.8729165053803746</v>
+      <c r="A11" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.6883532208573955</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.6883532208573955</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.47383015666475004</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.6883532208573955</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.6883532208573955</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.6883532208573955</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="510">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="515">
-        <v>0.7619832253654856</v>
-      </c>
-      <c r="C12" t="n" s="516">
-        <v>0.8729165053803746</v>
-      </c>
-      <c r="D12" s="517"/>
-      <c r="E12" s="518"/>
-      <c r="F12" s="519"/>
-      <c r="G12" s="520"/>
-      <c r="H12" t="n" s="521">
-        <v>0.7619832253654856</v>
-      </c>
-      <c r="I12" t="n" s="522">
-        <v>0.8729165053803746</v>
+      <c r="A12" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.47383015666475004</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.6883532208573955</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.47383015666475004</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.6883532208573955</v>
       </c>
     </row>
     <row r="13">
@@ -6697,84 +6718,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="526">
+      <c r="A15" t="s" s="527">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="540">
+      <c r="B16" t="s" s="541">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="540">
+      <c r="C16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="540">
+      <c r="D16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="540">
+      <c r="E16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="540">
+      <c r="F16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="540">
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="540">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="536">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="541">
+      <c r="A17" t="s" s="537">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>41.0</v>
       </c>
-      <c r="C17" t="n" s="542">
-        <v>0.9653606434604759</v>
-      </c>
-      <c r="D17" t="n" s="543">
-        <v>0.967707731027394</v>
-      </c>
-      <c r="E17" t="n" s="544">
-        <v>0.9041293410640593</v>
-      </c>
-      <c r="F17" t="n" s="545">
-        <v>0.8729165053803746</v>
-      </c>
-      <c r="G17" t="n" s="546">
-        <v>2.707317073170732</v>
-      </c>
-      <c r="H17" t="n" s="547">
-        <v>1.74991288981801</v>
+      <c r="C17" t="n" s="543">
+        <v>0.9202675792680539</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.9187908415024053</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.7622937024277932</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.6883532208573956</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>2.682926829268293</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.4219533112982983</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="536">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="541">
+      <c r="A18" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>41.0</v>
       </c>
-      <c r="C18" t="n" s="542">
-        <v>0.9699737917387301</v>
-      </c>
-      <c r="D18" t="n" s="543">
-        <v>0.967707731027394</v>
-      </c>
-      <c r="E18" t="n" s="544">
-        <v>0.9041293410640593</v>
-      </c>
-      <c r="F18" t="n" s="545">
-        <v>0.8729165053803747</v>
-      </c>
-      <c r="G18" t="n" s="546">
-        <v>2.975609756097561</v>
-      </c>
-      <c r="H18" t="n" s="547">
-        <v>1.8773359432723913</v>
+      <c r="C18" t="n" s="543">
+        <v>0.9173011319791927</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.9187908415024052</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.7622937024277932</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.6883532208573957</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.3972970422892348</v>
       </c>
     </row>
     <row r="19">
@@ -6788,83 +6809,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="551">
+      <c r="A21" t="s" s="552">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="565">
+      <c r="B22" t="s" s="566">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="565">
+      <c r="C22" t="s" s="566">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="565">
+      <c r="D22" t="s" s="566">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="565">
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="565">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="565">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="565">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="561">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="566">
+      <c r="A23" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.024390243902439025</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.34146341463414637</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="G23" t="n" s="572">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="C24" t="n" s="568">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="D24" t="n" s="569">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.43902439024390244</v>
+      </c>
+      <c r="F24" t="n" s="571">
         <v>0.21951219512195122</v>
       </c>
-      <c r="C23" t="n" s="567">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="D23" t="n" s="568">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="E23" t="n" s="569">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="F23" t="n" s="570">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="G23" t="n" s="571">
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="H23" t="n" s="572">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="561">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="566">
-        <v>0.21951219512195122</v>
-      </c>
-      <c r="C24" t="n" s="567">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="D24" t="n" s="568">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="569">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="F24" t="n" s="570">
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="G24" t="n" s="571">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="H24" t="n" s="572">
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6944,31 +6956,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="603">
-        <v>0.8153398764085786</v>
+        <v>0.7405247813411078</v>
       </c>
       <c r="B6" t="n" s="604">
-        <v>0.8154137562610617</v>
+        <v>0.7424012735506198</v>
       </c>
       <c r="C6" t="n" s="605">
-        <v>0.6883532208573955</v>
+        <v>0.5903323993072618</v>
       </c>
       <c r="D6" t="n" s="606">
-        <v>0.6883532208573955</v>
+        <v>0.590332399307262</v>
       </c>
       <c r="E6" t="n" s="607">
-        <v>4.4175218030565055</v>
+        <v>2.8820067699228553</v>
       </c>
       <c r="F6" t="n" s="608">
-        <v>0.057661368264005204</v>
+        <v>0.08054874064503866</v>
       </c>
       <c r="G6" t="n" s="609">
-        <v>2.5609756097560976</v>
+        <v>2.9390243902439024</v>
       </c>
       <c r="H6" t="n" s="610">
-        <v>1.2951598451118858</v>
+        <v>0.7921104874891153</v>
       </c>
       <c r="I6" t="n" s="611">
-        <v>0.6883532208573956</v>
+        <v>0.5903323993072619</v>
       </c>
     </row>
     <row r="7">
@@ -7015,48 +7027,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="625">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="630">
-        <v>0.6883532208573955</v>
+        <v>0.5903323993072619</v>
       </c>
       <c r="C11" t="n" s="631">
-        <v>0.6883532208573955</v>
+        <v>0.5903323993072619</v>
       </c>
       <c r="D11" t="n" s="632">
-        <v>0.47383015666475004</v>
+        <v>0.3484923416718684</v>
       </c>
       <c r="E11" t="n" s="633">
-        <v>0.6883532208573955</v>
+        <v>0.5903323993072619</v>
       </c>
       <c r="F11" s="634"/>
       <c r="G11" s="635"/>
       <c r="H11" t="n" s="636">
-        <v>0.6883532208573955</v>
+        <v>0.5903323993072619</v>
       </c>
       <c r="I11" t="n" s="637">
-        <v>0.6883532208573955</v>
+        <v>0.5903323993072619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="625">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="630">
-        <v>0.47383015666475004</v>
+        <v>0.3484923416718684</v>
       </c>
       <c r="C12" t="n" s="631">
-        <v>0.6883532208573955</v>
+        <v>0.5903323993072619</v>
       </c>
       <c r="D12" s="632"/>
       <c r="E12" s="633"/>
       <c r="F12" s="634"/>
       <c r="G12" s="635"/>
       <c r="H12" t="n" s="636">
-        <v>0.47383015666475004</v>
+        <v>0.3484923416718684</v>
       </c>
       <c r="I12" t="n" s="637">
-        <v>0.6883532208573955</v>
+        <v>0.5903323993072619</v>
       </c>
     </row>
     <row r="13">
@@ -7100,54 +7112,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="651">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="656">
         <v>41.0</v>
       </c>
       <c r="C17" t="n" s="657">
-        <v>0.9202675792680539</v>
+        <v>0.881191986137865</v>
       </c>
       <c r="D17" t="n" s="658">
-        <v>0.9187908415024053</v>
+        <v>0.8917209202736196</v>
       </c>
       <c r="E17" t="n" s="659">
-        <v>0.7622937024277932</v>
+        <v>0.685136753130034</v>
       </c>
       <c r="F17" t="n" s="660">
-        <v>0.6883532208573956</v>
+        <v>0.5903323993072617</v>
       </c>
       <c r="G17" t="n" s="661">
-        <v>2.682926829268293</v>
+        <v>3.073170731707317</v>
       </c>
       <c r="H17" t="n" s="662">
-        <v>1.4219533112982983</v>
+        <v>0.8482406469404489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="651">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="656">
         <v>41.0</v>
       </c>
       <c r="C18" t="n" s="657">
-        <v>0.9173011319791927</v>
+        <v>0.9017881172154696</v>
       </c>
       <c r="D18" t="n" s="658">
-        <v>0.9187908415024052</v>
+        <v>0.8917209202736196</v>
       </c>
       <c r="E18" t="n" s="659">
-        <v>0.7622937024277932</v>
+        <v>0.685136753130034</v>
       </c>
       <c r="F18" t="n" s="660">
-        <v>0.6883532208573957</v>
+        <v>0.5903323993072618</v>
       </c>
       <c r="G18" t="n" s="661">
-        <v>2.4390243902439024</v>
+        <v>2.8048780487804876</v>
       </c>
       <c r="H18" t="n" s="662">
-        <v>1.3972970422892348</v>
+        <v>0.9278877139805751</v>
       </c>
     </row>
     <row r="19">
@@ -7188,22 +7200,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="676">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="681">
-        <v>0.12195121951219512</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="C23" t="n" s="682">
-        <v>0.14634146341463414</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n" s="683">
-        <v>0.024390243902439025</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="E23" t="n" s="684">
-        <v>0.34146341463414637</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="F23" t="n" s="685">
-        <v>0.36585365853658536</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="G23" t="n" s="686">
         <v>0.0</v>
@@ -7211,22 +7223,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="676">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="681">
-        <v>0.17073170731707318</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="C24" t="n" s="682">
-        <v>0.0975609756097561</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="D24" t="n" s="683">
-        <v>0.07317073170731707</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="E24" t="n" s="684">
-        <v>0.43902439024390244</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="F24" t="n" s="685">
-        <v>0.21951219512195122</v>
+        <v>0.24390243902439024</v>
       </c>
       <c r="G24" t="n" s="686">
         <v>0.0</v>
@@ -7308,31 +7320,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="717">
-        <v>0.838803989699648</v>
+        <v>0.8050448024032735</v>
       </c>
       <c r="B6" t="n" s="718">
-        <v>0.8621248047659166</v>
+        <v>0.8334348134995601</v>
       </c>
       <c r="C6" t="n" s="719">
-        <v>0.9145071507146534</v>
+        <v>0.8999607533797431</v>
       </c>
       <c r="D6" t="n" s="720">
-        <v>0.38472655938429484</v>
+        <v>0.35731066845762743</v>
       </c>
       <c r="E6" t="n" s="721">
-        <v>6.252936239199571</v>
+        <v>5.003655511755806</v>
       </c>
       <c r="F6" t="n" s="722">
-        <v>0.03337435076904516</v>
+        <v>0.03831314700222322</v>
       </c>
       <c r="G6" t="n" s="723">
-        <v>3.3</v>
+        <v>2.8780487804878048</v>
       </c>
       <c r="H6" t="n" s="724">
-        <v>0.7762087348130011</v>
+        <v>0.7624703507891835</v>
       </c>
       <c r="I6" t="n" s="725">
-        <v>0.3681601014893663</v>
+        <v>0.31101101985008484</v>
       </c>
     </row>
     <row r="7">
@@ -7379,292 +7391,268 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="739">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="744">
-        <v>0.830147351652728</v>
+        <v>0.7932780698642066</v>
       </c>
       <c r="C11" t="n" s="745">
-        <v>0.8457998045907783</v>
+        <v>0.8080519596687018</v>
       </c>
       <c r="D11" t="n" s="746">
-        <v>0.9002049687162592</v>
+        <v>0.8685504539656648</v>
       </c>
       <c r="E11" t="n" s="747">
-        <v>0.3786708509243231</v>
+        <v>0.3447855649636529</v>
       </c>
       <c r="F11" t="n" s="748">
-        <v>5.485076087913935</v>
+        <v>4.209743211100365</v>
       </c>
       <c r="G11" t="n" s="749">
-        <v>0.03574614844076248</v>
+        <v>0.04262768568779228</v>
       </c>
       <c r="H11" t="n" s="750">
-        <v>0.0354252363516038</v>
+        <v>0.04054346877064293</v>
       </c>
       <c r="I11" t="n" s="751">
-        <v>0.3641214072567179</v>
+        <v>0.29937621201268316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="739">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="744">
-        <v>0.8374229545403973</v>
+        <v>0.7474825264582676</v>
       </c>
       <c r="C12" t="n" s="745">
-        <v>0.8610959001961698</v>
+        <v>0.7919096457758688</v>
       </c>
       <c r="D12" t="n" s="746">
-        <v>0.9064686880640435</v>
+        <v>0.8690393088333332</v>
       </c>
       <c r="E12" t="n" s="747">
-        <v>0.4078640218341884</v>
+        <v>0.32235576642495184</v>
       </c>
       <c r="F12" t="n" s="748">
-        <v>6.199211552519098</v>
+        <v>3.8056047755241633</v>
       </c>
       <c r="G12" t="n" s="749">
-        <v>0.03381388947059974</v>
+        <v>0.05245417536707382</v>
       </c>
       <c r="H12" t="n" s="750">
-        <v>0.027636856825828848</v>
+        <v>0.04164254708804982</v>
       </c>
       <c r="I12" t="n" s="751">
-        <v>0.37320502079562945</v>
+        <v>0.28257361765116845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="739">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="744">
-        <v>0.8256990205813324</v>
+        <v>0.740350179068842</v>
       </c>
       <c r="C13" t="n" s="745">
-        <v>0.8409164234609497</v>
+        <v>0.7840664556025789</v>
       </c>
       <c r="D13" t="n" s="746">
-        <v>0.8976031557484626</v>
+        <v>0.8596736288923746</v>
       </c>
       <c r="E13" t="n" s="747">
-        <v>0.3700127765681296</v>
+        <v>0.3121861788403663</v>
       </c>
       <c r="F13" t="n" s="748">
-        <v>5.286004009688142</v>
+        <v>3.6310544421922746</v>
       </c>
       <c r="G13" t="n" s="749">
-        <v>0.03629416214993715</v>
+        <v>0.05528243668361229</v>
       </c>
       <c r="H13" t="n" s="750">
-        <v>0.03631382707313864</v>
+        <v>0.03875736822260794</v>
       </c>
       <c r="I13" t="n" s="751">
-        <v>0.3485731847764477</v>
+        <v>0.26152728672953596</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="739">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="744">
-        <v>0.8101072503763171</v>
+        <v>0.7939726294892032</v>
       </c>
       <c r="C14" t="n" s="745">
-        <v>0.8364159911050475</v>
+        <v>0.8137288485183201</v>
       </c>
       <c r="D14" t="n" s="746">
-        <v>0.8934217243820909</v>
+        <v>0.8845011230223687</v>
       </c>
       <c r="E14" t="n" s="747">
-        <v>0.36229311280442034</v>
+        <v>0.35319655088689805</v>
       </c>
       <c r="F14" t="n" s="748">
-        <v>5.113066960244026</v>
+        <v>4.368517841037512</v>
       </c>
       <c r="G14" t="n" s="749">
-        <v>0.03894404552182178</v>
+        <v>0.04114494759713673</v>
       </c>
       <c r="H14" t="n" s="750">
-        <v>0.035694395757336274</v>
+        <v>0.05932568551941722</v>
       </c>
       <c r="I14" t="n" s="751">
-        <v>0.3485731847764477</v>
+        <v>0.3046328029179573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="739">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="744">
-        <v>0.8327440963529331</v>
+        <v>0.8069534209939825</v>
       </c>
       <c r="C15" t="n" s="745">
-        <v>0.8603323796373938</v>
+        <v>0.8372041891677157</v>
       </c>
       <c r="D15" t="n" s="746">
-        <v>0.9126365283938839</v>
+        <v>0.8967098252610198</v>
       </c>
       <c r="E15" t="n" s="747">
-        <v>0.4063268007901294</v>
+        <v>0.39129541203143947</v>
       </c>
       <c r="F15" t="n" s="748">
-        <v>6.159855644449248</v>
+        <v>5.1426642054703855</v>
       </c>
       <c r="G15" t="n" s="749">
-        <v>0.03508464518266934</v>
+        <v>0.03826304840560506</v>
       </c>
       <c r="H15" t="n" s="750">
-        <v>0.035085376030353596</v>
+        <v>0.04914779890992834</v>
       </c>
       <c r="I15" t="n" s="751">
-        <v>0.39917710254274064</v>
+        <v>0.3403454021477633</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="739">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="744">
-        <v>0.817738400364098</v>
+        <v>0.7894946279347393</v>
       </c>
       <c r="C16" t="n" s="745">
-        <v>0.8448817475780269</v>
+        <v>0.8275502368449256</v>
       </c>
       <c r="D16" t="n" s="746">
-        <v>0.9001183852488754</v>
+        <v>0.8820823664780689</v>
       </c>
       <c r="E16" t="n" s="747">
-        <v>0.37702012465849966</v>
+        <v>0.374940923120273</v>
       </c>
       <c r="F16" t="n" s="748">
-        <v>5.446694598387225</v>
+        <v>4.798790219855248</v>
       </c>
       <c r="G16" t="n" s="749">
-        <v>0.03795549509367286</v>
+        <v>0.038784197065987625</v>
       </c>
       <c r="H16" t="n" s="750">
-        <v>0.035922976822532975</v>
+        <v>0.0529055636956801</v>
       </c>
       <c r="I16" t="n" s="751">
-        <v>0.3641214072567179</v>
+        <v>0.32670946667082645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="739">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="744">
-        <v>0.8062898512221042</v>
+        <v>0.8063597680998265</v>
       </c>
       <c r="C17" t="n" s="745">
-        <v>0.8417779405511864</v>
+        <v>0.8390892408584335</v>
       </c>
       <c r="D17" t="n" s="746">
-        <v>0.8873834738318576</v>
+        <v>0.8906581714705629</v>
       </c>
       <c r="E17" t="n" s="747">
-        <v>0.3715185278070296</v>
+        <v>0.3946101308350681</v>
       </c>
       <c r="F17" t="n" s="748">
-        <v>5.320231221130763</v>
+        <v>5.214624835125026</v>
       </c>
       <c r="G17" t="n" s="749">
-        <v>0.04195095219096889</v>
+        <v>0.034441152248791414</v>
       </c>
       <c r="H17" t="n" s="750">
-        <v>0.03112218122838948</v>
+        <v>0.04720666349619218</v>
       </c>
       <c r="I17" t="n" s="751">
-        <v>0.35181109736665117</v>
+        <v>0.3485731847764477</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="739">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="744">
-        <v>0.8013443712743048</v>
+        <v>0.794652280989797</v>
       </c>
       <c r="C18" t="n" s="745">
-        <v>0.8353266718202722</v>
+        <v>0.8292349482853992</v>
       </c>
       <c r="D18" t="n" s="746">
-        <v>0.8841814644259713</v>
+        <v>0.8974579781043992</v>
       </c>
       <c r="E18" t="n" s="747">
-        <v>0.3604606424542794</v>
+        <v>0.37772242373058057</v>
       </c>
       <c r="F18" t="n" s="748">
-        <v>5.072628828565239</v>
+        <v>4.855999163524967</v>
       </c>
       <c r="G18" t="n" s="749">
-        <v>0.04390681820846977</v>
+        <v>0.040561335831513626</v>
       </c>
       <c r="H18" t="n" s="750">
-        <v>0.029731372536306835</v>
+        <v>0.05595196765370371</v>
       </c>
       <c r="I18" t="n" s="751">
-        <v>0.34352591656360104</v>
+        <v>0.32670946667082645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="739">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="744">
-        <v>0.8307406387665199</v>
+        <v>0.7745912287774941</v>
       </c>
       <c r="C19" t="n" s="745">
-        <v>0.8591575210715519</v>
+        <v>0.8079953075477458</v>
       </c>
       <c r="D19" t="n" s="746">
-        <v>0.9038269524057706</v>
+        <v>0.8820817414072167</v>
       </c>
       <c r="E19" t="n" s="747">
-        <v>0.40397866649012637</v>
+        <v>0.34470306528541633</v>
       </c>
       <c r="F19" t="n" s="748">
-        <v>6.100130639620649</v>
+        <v>4.208206045530217</v>
       </c>
       <c r="G19" t="n" s="749">
-        <v>0.033905441804625965</v>
+        <v>0.04435258466777749</v>
       </c>
       <c r="H19" t="n" s="750">
-        <v>0.03227740757352882</v>
+        <v>0.056477096960684134</v>
       </c>
       <c r="I19" t="n" s="751">
-        <v>0.39917710254274064</v>
+        <v>0.2942084254885701</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.8372876302210106</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.8617165024738184</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.8997452983291079</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.4091200695118229</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>6.231520882024745</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.03154471189659157</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.029667488729880138</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.37320502079562945</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7673,359 +7661,380 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="755">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="769">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="769">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="769">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="769">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="769">
-        <v>10</v>
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>41.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.7052427123417702</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.7142802903874081</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.7264977932653206</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.6724789494065577</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.4190581774617469</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="765">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C25" t="n" s="771">
-        <v>0.6210753053035833</v>
+        <v>0.844892536272738</v>
       </c>
       <c r="D25" t="n" s="772">
-        <v>0.700656843546936</v>
+        <v>0.8208548929511996</v>
       </c>
       <c r="E25" t="n" s="773">
-        <v>0.6675548469411704</v>
+        <v>0.8340211402988952</v>
       </c>
       <c r="F25" t="n" s="774">
-        <v>0.5732007596858077</v>
+        <v>0.74076714973605</v>
       </c>
       <c r="G25" t="n" s="775">
-        <v>3.926829268292683</v>
+        <v>2.707317073170732</v>
       </c>
       <c r="H25" t="n" s="776">
-        <v>0.5652540978373808</v>
+        <v>1.74991288981801</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="765">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C26" t="n" s="771">
-        <v>0.4592976778152411</v>
+        <v>0.8769548390582192</v>
       </c>
       <c r="D26" t="n" s="772">
-        <v>0.543333648939217</v>
+        <v>0.8691754230350882</v>
       </c>
       <c r="E26" t="n" s="773">
-        <v>0.49840080678573956</v>
+        <v>0.8947511858238103</v>
       </c>
       <c r="F26" t="n" s="774">
-        <v>0.3641129897248898</v>
+        <v>0.782214615669318</v>
       </c>
       <c r="G26" t="n" s="775">
-        <v>4.512195121951219</v>
+        <v>2.975609756097561</v>
       </c>
       <c r="H26" t="n" s="776">
-        <v>0.8695387058524823</v>
+        <v>1.8773359432723913</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="765">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C27" t="n" s="771">
-        <v>0.6816273357690763</v>
+        <v>0.5910644068605256</v>
       </c>
       <c r="D27" t="n" s="772">
-        <v>0.7473155611310279</v>
+        <v>0.6743157102155075</v>
       </c>
       <c r="E27" t="n" s="773">
-        <v>0.7232837879614598</v>
+        <v>0.618799072378167</v>
       </c>
       <c r="F27" t="n" s="774">
-        <v>0.6348869516030478</v>
+        <v>0.5334274387745482</v>
       </c>
       <c r="G27" t="n" s="775">
-        <v>3.7560975609756095</v>
+        <v>3.926829268292683</v>
       </c>
       <c r="H27" t="n" s="776">
-        <v>0.6237181977815802</v>
+        <v>0.5652540978373808</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="765">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C28" t="n" s="771">
-        <v>0.7656285435394726</v>
+        <v>0.40660779729553953</v>
       </c>
       <c r="D28" t="n" s="772">
-        <v>0.7889171455684957</v>
+        <v>0.49328996548549203</v>
       </c>
       <c r="E28" t="n" s="773">
-        <v>0.7721314081651504</v>
+        <v>0.4136433183676353</v>
       </c>
       <c r="F28" t="n" s="774">
-        <v>0.6979212922613398</v>
+        <v>0.2929245910872119</v>
       </c>
       <c r="G28" t="n" s="775">
-        <v>4.121951219512195</v>
+        <v>4.512195121951219</v>
       </c>
       <c r="H28" t="n" s="776">
-        <v>1.076919726609637</v>
+        <v>0.8695387058524823</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="765">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C29" t="n" s="771">
-        <v>0.5239881793212127</v>
+        <v>0.6321413007963083</v>
       </c>
       <c r="D29" t="n" s="772">
-        <v>0.551617796153518</v>
+        <v>0.5709978928587194</v>
       </c>
       <c r="E29" t="n" s="773">
-        <v>0.4786370645810812</v>
+        <v>0.5204998236511437</v>
       </c>
       <c r="F29" t="n" s="774">
-        <v>0.4377689309184587</v>
+        <v>0.48083911219559616</v>
       </c>
       <c r="G29" t="n" s="775">
-        <v>3.073170731707317</v>
+        <v>2.682926829268293</v>
       </c>
       <c r="H29" t="n" s="776">
-        <v>0.8482406469404489</v>
+        <v>1.4219533112982983</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="765">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C30" t="n" s="771">
-        <v>0.7081026605150226</v>
+        <v>0.5312469053420014</v>
       </c>
       <c r="D30" t="n" s="772">
-        <v>0.709552675053696</v>
+        <v>0.47754016557097606</v>
       </c>
       <c r="E30" t="n" s="773">
-        <v>0.673937756631252</v>
+        <v>0.41157124474985884</v>
       </c>
       <c r="F30" t="n" s="774">
-        <v>0.6402724000735117</v>
+        <v>0.3606786964798846</v>
       </c>
       <c r="G30" t="n" s="775">
-        <v>2.8048780487804876</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="H30" t="n" s="776">
-        <v>0.9278877139805751</v>
+        <v>1.3972970422892348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="765">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C31" t="n" s="771">
-        <v>0.8098372132279168</v>
+        <v>0.5338275972424132</v>
       </c>
       <c r="D31" t="n" s="772">
-        <v>0.739201005986618</v>
+        <v>0.5577816652781197</v>
       </c>
       <c r="E31" t="n" s="773">
-        <v>0.7436997801323753</v>
+        <v>0.4861245631655122</v>
       </c>
       <c r="F31" t="n" s="774">
-        <v>0.7057401949573066</v>
+        <v>0.43647417673075467</v>
       </c>
       <c r="G31" t="n" s="775">
-        <v>2.707317073170732</v>
+        <v>3.073170731707317</v>
       </c>
       <c r="H31" t="n" s="776">
-        <v>1.74991288981801</v>
+        <v>0.8482406469404489</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="765">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="770">
         <v>41.0</v>
       </c>
       <c r="C32" t="n" s="771">
-        <v>0.8475131331245156</v>
+        <v>0.711515018400599</v>
       </c>
       <c r="D32" t="n" s="772">
-        <v>0.7987924033949989</v>
+        <v>0.7146722854561346</v>
       </c>
       <c r="E32" t="n" s="773">
-        <v>0.8091545806614471</v>
+        <v>0.6844736362707644</v>
       </c>
       <c r="F32" t="n" s="774">
-        <v>0.7520671517133932</v>
+        <v>0.6341508480811147</v>
       </c>
       <c r="G32" t="n" s="775">
-        <v>2.975609756097561</v>
+        <v>2.8048780487804876</v>
       </c>
       <c r="H32" t="n" s="776">
-        <v>1.8773359432723913</v>
+        <v>0.9278877139805751</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>41.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.6138262218864249</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.5642719881419463</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.520174062586467</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.4788776830415942</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>2.682926829268293</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.4219533112982983</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>41.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.5578123293441184</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.5365647565213576</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.5013150797817303</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.4142926716011179</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>2.4390243902439024</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.3972970422892348</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="780">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="794">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="794">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="794">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="794">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="794">
-        <v>43</v>
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.024390243902439025</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.2682926829268293</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.2926829268292683</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="790">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="795">
-        <v>0.0</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="C39" t="n" s="796">
-        <v>0.0</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="D39" t="n" s="797">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="798">
+        <v>0.2682926829268293</v>
+      </c>
+      <c r="F39" t="n" s="799">
         <v>0.1951219512195122</v>
       </c>
-      <c r="F39" t="n" s="799">
-        <v>0.6829268292682927</v>
-      </c>
       <c r="G39" t="n" s="800">
-        <v>0.12195121951219512</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="H39" t="n" s="801">
         <v>0.0</v>
@@ -8033,7 +8042,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="790">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="795">
         <v>0.0</v>
@@ -8042,16 +8051,16 @@
         <v>0.0</v>
       </c>
       <c r="D40" t="n" s="797">
-        <v>0.024390243902439025</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="798">
-        <v>0.17073170731707318</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="F40" t="n" s="799">
-        <v>0.07317073170731707</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="G40" t="n" s="800">
-        <v>0.7317073170731707</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="H40" t="n" s="801">
         <v>0.0</v>
@@ -8059,7 +8068,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="790">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="795">
         <v>0.0</v>
@@ -8068,16 +8077,16 @@
         <v>0.0</v>
       </c>
       <c r="D41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="E41" t="n" s="798">
-        <v>0.34146341463414637</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="F41" t="n" s="799">
-        <v>0.5609756097560976</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G41" t="n" s="800">
-        <v>0.0975609756097561</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="H41" t="n" s="801">
         <v>0.0</v>
@@ -8085,25 +8094,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="790">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="795">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="C42" t="n" s="796">
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="D42" t="n" s="797">
+        <v>0.024390243902439025</v>
+      </c>
+      <c r="E42" t="n" s="798">
+        <v>0.34146341463414637</v>
+      </c>
+      <c r="F42" t="n" s="799">
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="G42" t="n" s="800">
         <v>0.0</v>
-      </c>
-      <c r="C42" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D42" t="n" s="797">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="E42" t="n" s="798">
-        <v>0.36585365853658536</v>
-      </c>
-      <c r="F42" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n" s="800">
-        <v>0.5853658536585366</v>
       </c>
       <c r="H42" t="n" s="801">
         <v>0.0</v>
@@ -8111,22 +8120,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="790">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="795">
-        <v>0.024390243902439025</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="C43" t="n" s="796">
-        <v>0.0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="D43" t="n" s="797">
-        <v>0.17073170731707318</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="E43" t="n" s="798">
-        <v>0.4878048780487805</v>
+        <v>0.43902439024390244</v>
       </c>
       <c r="F43" t="n" s="799">
-        <v>0.3170731707317073</v>
+        <v>0.21951219512195122</v>
       </c>
       <c r="G43" t="n" s="800">
         <v>0.0</v>
@@ -8137,22 +8146,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="790">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="795">
         <v>0.024390243902439025</v>
       </c>
       <c r="C44" t="n" s="796">
-        <v>0.024390243902439025</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="797">
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="E44" t="n" s="798">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="F44" t="n" s="799">
         <v>0.3170731707317073</v>
-      </c>
-      <c r="E44" t="n" s="798">
-        <v>0.3902439024390244</v>
-      </c>
-      <c r="F44" t="n" s="799">
-        <v>0.24390243902439024</v>
       </c>
       <c r="G44" t="n" s="800">
         <v>0.0</v>
@@ -8163,105 +8172,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="790">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="795">
-        <v>0.21951219512195122</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="C45" t="n" s="796">
-        <v>0.07317073170731707</v>
+        <v>0.024390243902439025</v>
       </c>
       <c r="D45" t="n" s="797">
-        <v>0.024390243902439025</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="E45" t="n" s="798">
-        <v>0.2682926829268293</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="F45" t="n" s="799">
-        <v>0.2926829268292683</v>
+        <v>0.24390243902439024</v>
       </c>
       <c r="G45" t="n" s="800">
-        <v>0.12195121951219512</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.21951219512195122</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.14634146341463414</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.024390243902439025</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.34146341463414637</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.36585365853658536</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.17073170731707318</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.43902439024390244</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.21951219512195122</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
